--- a/designing_docs/表格/科技表.xlsx
+++ b/designing_docs/表格/科技表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="科技表" sheetId="1" r:id="rId1"/>
+    <sheet name="科技效果表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="197">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,464 +45,704 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>石料加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器附加火属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜质水道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜质齿轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在每块农田中修建铜制水道，使其消耗的水量降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜器加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器附加风属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储水技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜水道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜齿轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜杠杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在每块农田中修建青铜水道，使其消耗的水量降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜防护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土器加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜防护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启防具-青铜盾、青铜盔、青铜甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启防具-铜盾、铜盔、铜甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁质水道</t>
+  </si>
+  <si>
+    <t>铁质阀门</t>
+  </si>
+  <si>
+    <t>水利工程</t>
+  </si>
+  <si>
+    <t>铁质齿轮</t>
+  </si>
+  <si>
+    <t>铁质杠杆</t>
+  </si>
+  <si>
+    <t>风力工程</t>
+  </si>
+  <si>
+    <t>铁器加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁防护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启防具-铁盾、铁盔、铁甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在每块农田中修建铁质水道，使其消耗的水量降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合农业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业水道</t>
+  </si>
+  <si>
+    <t>蒸汽阀门</t>
+  </si>
+  <si>
+    <t>循环技术</t>
+  </si>
+  <si>
+    <t>工业齿轮</t>
+  </si>
+  <si>
+    <t>蒸汽杠杆</t>
+  </si>
+  <si>
+    <t>土相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器附加土属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器附加水属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓类武器攻击+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器对障碍物攻击+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启防具-石盾、石盔、石甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒类武器攻击+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉类武器攻击+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球类武器攻击+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合铸造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒类武器攻击+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合合金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉类武器攻击+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摧毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球类武器溅射伤害+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉类武器对障碍物伤害+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石防护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业防护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启防具-电动盾、电动盔、电动甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器对障碍物攻击+15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启武器-土弓、土球、土棒、土钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启武器-石弓、石球、石棒、石钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启武器-铜弓、铜球、铜棒、铜钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启武器-青铜弩、青铜炮、青铜棒、青铜钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启武器-铁弩、铁炮、铁棒、铁枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启武器-电动弩、电动炮、电动棒、电动枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓类武器攻击+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球类武器攻击+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部三类防具防御+1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部三类防具防御+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部三类防具防御+3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动农业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每块土地基础产量+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每块土地基础产量+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在每块农田中修建工业水道，使其消耗的水量降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜阀门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水道效果额外提升1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水道效果额外提升2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水道效果额外提升4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在每块农田中修建青铜传动的磨坊，增加其产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在每块农田中修建铁传动的磨坊，增加其产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在每块农田中修建工业传动的磨坊，增加其产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨坊效果额外提升1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨坊效果额外提升2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨坊效果额外提升4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时储水恢复增加40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>磨坊升级造价降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级科技需求的最低等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下个科技id列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启武器=id，id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加全部宠物的最小伤害和最大伤害数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部宠物装备的武器更换为对应id系列武器；注每个宠物对应一系列独有id，例如：仓鼠对应弓系列，则会从土弓更换为石弓，铜弓……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2=100,101,102,103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某种类武器伤害增加固定数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物伤害增加=X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某类武器伤害增加=武器类别=X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3=1=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球类武器爆炸后对周围一定半径造成的额外溅射伤害增加数值（原先为武器原型的固定值=10%武器Dmg）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球类武器溅射伤害增加=X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒类武器为持续性伤害武器，投中之后，包括投中的一回合，固定造成3回合持续伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒类武器持续伤害+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒类武器持续伤害增加=X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉类武器对障碍物伤害增加=X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉类武器为直线穿透性射击，对障碍物有较高的伤害作用，默认对障碍物产生150%Dmg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部武器对障碍物伤害增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部武器对障碍物伤害增加=X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部宠物装备的防具更换为对应id系列防具；注每个宠物对应一系列独有id，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启防具=id，id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御与其自身减伤率（相当于魔兽的护甲减伤率）有关，默认每类防具有固定的减伤率%，此效果为在固定减伤率上乘以（1+buff所得‰）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部防具增加防御效果‰=X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8=100,101,102,103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器附加属性攻击效果，效果附加和开启开关类似，一旦开启此科技，则武器拥有此攻击属性，同一武器拥有多个攻击属性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10=2（武器附加火属性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每块土地基础产量+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每块土地的基础产量增加XX，不论该土地处于何种等级之下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每块土地的基础产量增加=X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在每块农田中修建XX水道（水道种类可以使用编号表示，如1=石制水道等。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>可在每块农田中修建石制水道，使其消耗的水量降低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石料加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器附加火属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜质水道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜质齿轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可在每块农田中修建铜制水道，使其消耗的水量降低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜器加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器附加风属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储水技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜水道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜齿轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜杠杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可在每块农田中修建青铜水道，使其消耗的水量降低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜防护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土器加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破坏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜防护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启防具-青铜盾、青铜盔、青铜甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启防具-铜盾、铜盔、铜甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁质水道</t>
-  </si>
-  <si>
-    <t>铁质阀门</t>
-  </si>
-  <si>
-    <t>水利工程</t>
-  </si>
-  <si>
-    <t>铁质齿轮</t>
-  </si>
-  <si>
-    <t>铁质杠杆</t>
-  </si>
-  <si>
-    <t>风力工程</t>
-  </si>
-  <si>
-    <t>铁器加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁防护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启防具-铁盾、铁盔、铁甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可在每块农田中修建铁质水道，使其消耗的水量降低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复合农业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业水道</t>
-  </si>
-  <si>
-    <t>蒸汽阀门</t>
-  </si>
-  <si>
-    <t>循环技术</t>
-  </si>
-  <si>
-    <t>工业齿轮</t>
-  </si>
-  <si>
-    <t>蒸汽杠杆</t>
-  </si>
-  <si>
-    <t>土相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器附加土属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器附加水属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上限等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物攻击+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓类武器攻击+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器对障碍物攻击+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启防具-石盾、石盔、石甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棒类武器攻击+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钉类武器攻击+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启时代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物攻击+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复合弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复合弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>球类武器攻击+12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复合铸造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棒类武器攻击+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复合合金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钉类武器攻击+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摧毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>球类武器溅射伤害+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棒类武器持续伤害+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钉类武器对障碍物伤害+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石防护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业防护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启防具-电动盾、电动盔、电动甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器对障碍物攻击+15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启武器-土弓、土球、土棒、土钉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启武器-石弓、石球、石棒、石钉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启武器-铜弓、铜球、铜棒、铜钉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启武器-青铜弩、青铜炮、青铜棒、青铜钉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启武器-铁弩、铁炮、铁棒、铁枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启武器-电动弩、电动炮、电动棒、电动枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓类武器攻击+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>球类武器攻击+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物攻击+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部三类防具防御+1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部三类防具防御+2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复合甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部三类防具防御+3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动农业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每块土地基础产量+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每块土地基础产量+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每块土地基础产量+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可在每块农田中修建工业水道，使其消耗的水量降低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜阀门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水道效果额外提升1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水道效果额外提升2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水道效果额外提升4%</t>
+    <t>12=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在每块农田中修建水道=水道代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器附加攻击属性=属性编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水道效果额外提升%=X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果额外提升计算方法为在基础之上乘以(1+buff所得%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,27 +750,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可在每块农田中修建青铜传动的磨坊，增加其产量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可在每块农田中修建铁传动的磨坊，增加其产量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可在每块农田中修建工业传动的磨坊，增加其产量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磨坊效果额外提升1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磨坊效果额外提升2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磨坊效果额外提升4%</t>
+    <t>可在每块农田中修建XX传动的磨坊（磨坊种类可以使用编号表示，如1=铜质传动磨坊等。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在每块农田中修建磨坊=磨坊代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨坊效果额外提升%=X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -538,7 +774,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每小时储水恢复增加40</t>
+    <t>每小时储水恢复增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时储水恢复增加=X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16=X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -566,12 +810,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>青铜</t>
+    <t>磨坊升级造价降低%=X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>磨坊升级造价降低</t>
+      <t>水道升级造价降低%</t>
     </r>
     <r>
       <rPr>
@@ -580,29 +824,24 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>=X</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级科技需求的最低等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下个科技id列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水道升级造价降低一定%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨坊升级造价降低一定%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1029,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1055,19 +1294,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1078,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1093,13 +1332,13 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E3" s="2">
         <v>15</v>
@@ -1111,13 +1350,13 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
@@ -1129,13 +1368,13 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1147,13 +1386,13 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1164,13 +1403,13 @@
         <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1182,13 +1421,13 @@
         <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1200,13 +1439,13 @@
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1218,13 +1457,13 @@
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1236,13 +1475,13 @@
         <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="4">
         <v>15</v>
@@ -1253,13 +1492,13 @@
         <v>121</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" s="4">
         <v>15</v>
@@ -1270,13 +1509,13 @@
         <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E13" s="4">
         <v>15</v>
@@ -1287,13 +1526,13 @@
         <v>123</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4">
         <v>15</v>
@@ -1304,13 +1543,13 @@
         <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="4">
         <v>15</v>
@@ -1321,13 +1560,13 @@
         <v>125</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -1338,13 +1577,13 @@
         <v>126</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="4">
         <v>15</v>
@@ -1355,13 +1594,13 @@
         <v>127</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="4">
         <v>15</v>
@@ -1372,13 +1611,13 @@
         <v>130</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="E19" s="4">
         <v>15</v>
@@ -1389,13 +1628,13 @@
         <v>131</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="4">
         <v>15</v>
@@ -1406,13 +1645,13 @@
         <v>132</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="4">
         <v>15</v>
@@ -1423,13 +1662,13 @@
         <v>131</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E22" s="4">
         <v>15</v>
@@ -1440,13 +1679,13 @@
         <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="E23" s="4">
         <v>15</v>
@@ -1457,13 +1696,13 @@
         <v>140</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -1474,13 +1713,13 @@
         <v>141</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1491,13 +1730,13 @@
         <v>142</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -1508,13 +1747,13 @@
         <v>143</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -1525,13 +1764,13 @@
         <v>144</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -1542,13 +1781,13 @@
         <v>150</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
@@ -1559,13 +1798,13 @@
         <v>151</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
@@ -1576,13 +1815,13 @@
         <v>152</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2">
         <v>5</v>
@@ -1593,13 +1832,13 @@
         <v>160</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -1610,13 +1849,13 @@
         <v>161</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -1627,13 +1866,13 @@
         <v>162</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -1644,13 +1883,13 @@
         <v>163</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -1661,13 +1900,13 @@
         <v>110</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2">
         <v>10</v>
@@ -1678,13 +1917,13 @@
         <v>140</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37" s="2">
         <v>15</v>
@@ -1695,19 +1934,19 @@
         <v>140</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="D38" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>105</v>
       </c>
@@ -1715,78 +1954,78 @@
         <v>6</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>111</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>119</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>128</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>142</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -1794,13 +2033,13 @@
         <v>121</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2">
         <v>10</v>
@@ -1811,13 +2050,13 @@
         <v>129</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2">
         <v>15</v>
@@ -1828,13 +2067,13 @@
         <v>143</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2">
         <v>15</v>
@@ -1845,13 +2084,13 @@
         <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -1862,13 +2101,13 @@
         <v>120</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -1879,13 +2118,13 @@
         <v>131</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -1896,13 +2135,13 @@
         <v>145</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
@@ -1913,13 +2152,13 @@
         <v>122</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2">
         <v>10</v>
@@ -1930,13 +2169,13 @@
         <v>132</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2">
         <v>15</v>
@@ -1947,13 +2186,13 @@
         <v>146</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2">
         <v>15</v>
@@ -1964,13 +2203,13 @@
         <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E54" s="2">
         <v>10</v>
@@ -1981,13 +2220,13 @@
         <v>144</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2">
         <v>15</v>
@@ -1998,13 +2237,13 @@
         <v>130</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E56" s="2">
         <v>10</v>
@@ -2015,13 +2254,13 @@
         <v>133</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E57" s="2">
         <v>10</v>
@@ -2036,12 +2275,287 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.75" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/designing_docs/表格/科技表.xlsx
+++ b/designing_docs/表格/科技表.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="科技表" sheetId="1" r:id="rId1"/>
     <sheet name="科技效果表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="科技树形状表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="199">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,18 +45,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石料加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武器附加火属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>农业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铜质水道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铜器加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武器附加风属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>土器加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>破坏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复合农业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工业水道</t>
   </si>
   <si>
@@ -211,10 +191,6 @@
   </si>
   <si>
     <t>上限等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长弓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -842,6 +818,38 @@
   </si>
   <si>
     <t>18=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土器加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石料加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜器加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合农业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +902,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,6 +933,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -938,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -965,6 +979,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -977,6 +992,5603 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104776" y="171449"/>
+          <a:ext cx="628650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>燃烧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95251" y="676274"/>
+          <a:ext cx="628650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>融合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95251" y="1200149"/>
+          <a:ext cx="628650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>聚能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="409576" y="447674"/>
+          <a:ext cx="9525" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409576" y="952499"/>
+          <a:ext cx="0" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2309812" y="180974"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>土器加工</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2309812" y="809624"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>石料加工</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2309812" y="1428749"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>铜器加工</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="504824"/>
+          <a:ext cx="590550" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>长弓</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3109912" y="319087"/>
+          <a:ext cx="280988" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2709862" y="457199"/>
+          <a:ext cx="0" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="133349"/>
+          <a:ext cx="590550" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>农业</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7124700" y="142874"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>石制水道</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9039225" y="723899"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>铜质齿轮</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="矩形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="819149"/>
+          <a:ext cx="685800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>石防护</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1219200" y="457199"/>
+          <a:ext cx="1490662" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991101" y="152399"/>
+          <a:ext cx="628650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>火相</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4981576" y="657224"/>
+          <a:ext cx="628650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>风相</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4981576" y="1181099"/>
+          <a:ext cx="628650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>土相</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接箭头连接符 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5295901" y="428624"/>
+          <a:ext cx="9525" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295901" y="933449"/>
+          <a:ext cx="0" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矩形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972051" y="1714499"/>
+          <a:ext cx="628650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>水相</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="46" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5286376" y="1457324"/>
+          <a:ext cx="9525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="矩形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2309812" y="2047874"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>青铜加工</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="矩形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2309812" y="2609849"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>铁器加工</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矩形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2309812" y="3171824"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>工业加工</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直接箭头连接符 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2709862" y="1085849"/>
+          <a:ext cx="0" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直接箭头连接符 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2709862" y="1704974"/>
+          <a:ext cx="0" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直接箭头连接符 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="51" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2709862" y="2324099"/>
+          <a:ext cx="0" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直接箭头连接符 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+          <a:endCxn id="52" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2709862" y="2886074"/>
+          <a:ext cx="0" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直接箭头连接符 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="68" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3981450" y="519112"/>
+          <a:ext cx="171450" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="矩形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="380999"/>
+          <a:ext cx="647700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>复合弓</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="矩形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="1095374"/>
+          <a:ext cx="590550" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>实弹</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="矩形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="1152524"/>
+          <a:ext cx="647700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>复合弹</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直接箭头连接符 73"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="72" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3109912" y="947737"/>
+          <a:ext cx="252413" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直接箭头连接符 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="3"/>
+          <a:endCxn id="73" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="1233487"/>
+          <a:ext cx="228600" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="矩形 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="1724024"/>
+          <a:ext cx="590550" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>铸造</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="矩形 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162424" y="1895474"/>
+          <a:ext cx="752475" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>复合铸造</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直接箭头连接符 93"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="92" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3109912" y="1566862"/>
+          <a:ext cx="252413" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直接箭头连接符 96"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="3"/>
+          <a:endCxn id="93" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="1862137"/>
+          <a:ext cx="209549" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="矩形 101"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="2285999"/>
+          <a:ext cx="590550" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>合金</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="矩形 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171949" y="2600324"/>
+          <a:ext cx="752475" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>复合合金</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="矩形 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="800099"/>
+          <a:ext cx="647700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>碎片</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直接箭头连接符 119"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="3"/>
+          <a:endCxn id="119" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3952875" y="938212"/>
+          <a:ext cx="219075" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="矩形 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="1523999"/>
+          <a:ext cx="647700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>延续</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="直接箭头连接符 124"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="3"/>
+          <a:endCxn id="124" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3952875" y="1662112"/>
+          <a:ext cx="209550" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直接箭头连接符 127"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="3"/>
+          <a:endCxn id="102" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3109912" y="2185987"/>
+          <a:ext cx="242888" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="矩形 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="2238374"/>
+          <a:ext cx="647700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>穿刺</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直接箭头连接符 132"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="3"/>
+          <a:endCxn id="103" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3943350" y="2424112"/>
+          <a:ext cx="228599" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直接箭头连接符 133"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="3"/>
+          <a:endCxn id="132" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3943350" y="2376487"/>
+          <a:ext cx="219075" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="矩形 139"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="1114424"/>
+          <a:ext cx="571500" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>破坏</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="矩形 142"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="871536" y="1371599"/>
+          <a:ext cx="685800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>铜防护</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="矩形 143"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="1695449"/>
+          <a:ext cx="571500" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>摧毁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>528636</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="直接箭头连接符 144"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="143" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1214436" y="1095374"/>
+          <a:ext cx="4764" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="直接箭头连接符 147"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="1"/>
+          <a:endCxn id="140" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1933575" y="947737"/>
+          <a:ext cx="376237" cy="166687"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="直接箭头连接符 150"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="140" idx="2"/>
+          <a:endCxn id="144" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="1390649"/>
+          <a:ext cx="0" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>157161</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>214311</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="矩形 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="842961" y="1933574"/>
+          <a:ext cx="742950" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>青铜防护</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="矩形 160"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="871536" y="2466974"/>
+          <a:ext cx="685800" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>铁防护</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="矩形 161"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819149" y="3000374"/>
+          <a:ext cx="790575" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>工业防护</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>528636</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>528636</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="直接箭头连接符 162"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="143" idx="2"/>
+          <a:endCxn id="160" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1214436" y="1647824"/>
+          <a:ext cx="0" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>528636</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>528636</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="直接箭头连接符 165"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="160" idx="2"/>
+          <a:endCxn id="161" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1214436" y="2209799"/>
+          <a:ext cx="0" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>528636</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="直接箭头连接符 168"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="161" idx="2"/>
+          <a:endCxn id="162" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1214436" y="2743199"/>
+          <a:ext cx="1" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="矩形 172"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="128586" y="1676399"/>
+          <a:ext cx="557214" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>厚甲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>407193</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="直接箭头连接符 173"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="143" idx="1"/>
+          <a:endCxn id="173" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="407193" y="1509712"/>
+          <a:ext cx="464343" cy="166687"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="矩形 177"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="119061" y="2209799"/>
+          <a:ext cx="557214" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>重甲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="矩形 178"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="2752724"/>
+          <a:ext cx="666750" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>复合甲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>397668</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>407193</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="直接箭头连接符 179"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="173" idx="2"/>
+          <a:endCxn id="178" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="397668" y="1952624"/>
+          <a:ext cx="9525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>397668</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="直接箭头连接符 182"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="178" idx="2"/>
+          <a:endCxn id="179" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="390525" y="2486024"/>
+          <a:ext cx="7143" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="矩形 207"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="1257299"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>复合农业</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="209" name="直接箭头连接符 208"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+          <a:endCxn id="208" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="409574"/>
+          <a:ext cx="19050" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="矩形 212"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="2447924"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>自动农业</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="214" name="直接箭头连接符 213"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="208" idx="2"/>
+          <a:endCxn id="213" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="1533524"/>
+          <a:ext cx="19050" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="矩形 217"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="704849"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>铜质水道</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="矩形 218"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="1266824"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>青铜水道</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="矩形 219"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="1838324"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>铁质水道</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="矩形 220"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172325" y="2428874"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>工业水道</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="223" name="直接箭头连接符 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="218" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="419099"/>
+          <a:ext cx="19050" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="226" name="直接箭头连接符 225"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="218" idx="2"/>
+          <a:endCxn id="219" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="981074"/>
+          <a:ext cx="0" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="229" name="直接箭头连接符 228"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="219" idx="2"/>
+          <a:endCxn id="220" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="1543049"/>
+          <a:ext cx="19050" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="直接箭头连接符 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="2"/>
+          <a:endCxn id="221" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7562850" y="2114549"/>
+          <a:ext cx="9525" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="235" name="直接箭头连接符 234"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="219" idx="3"/>
+          <a:endCxn id="240" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="1404937"/>
+          <a:ext cx="209550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="矩形 239"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="1266824"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>青铜阀门</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="244" name="矩形 243"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143875" y="1838324"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>铁质阀门</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="245" name="直接箭头连接符 244"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="3"/>
+          <a:endCxn id="244" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="1976437"/>
+          <a:ext cx="180975" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="251" name="矩形 250"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8172450" y="2419349"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>蒸汽阀门</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="252" name="直接箭头连接符 251"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="221" idx="3"/>
+          <a:endCxn id="251" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7972425" y="2557462"/>
+          <a:ext cx="200025" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="矩形 254"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9067800" y="1828799"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>铁质齿轮</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="258" name="矩形 257"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048750" y="1257299"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>青铜齿轮</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="259" name="矩形 258"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086850" y="2400299"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>工业齿轮</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="260" name="直接箭头连接符 259"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="258" idx="3"/>
+          <a:endCxn id="261" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9848850" y="1385887"/>
+          <a:ext cx="219075" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="261" name="矩形 260"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067925" y="1247774"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>青铜杠杆</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="262" name="矩形 261"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="1819274"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>铁质杠杆</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="263" name="直接箭头连接符 262"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="255" idx="3"/>
+          <a:endCxn id="262" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9867900" y="1957387"/>
+          <a:ext cx="190500" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="264" name="矩形 263"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="2400299"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>蒸汽杠杆</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="265" name="直接箭头连接符 264"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="259" idx="3"/>
+          <a:endCxn id="264" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9886950" y="2538412"/>
+          <a:ext cx="200025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="269" name="直接箭头连接符 268"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="258" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9439275" y="1000124"/>
+          <a:ext cx="9525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="272" name="直接箭头连接符 271"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="258" idx="2"/>
+          <a:endCxn id="255" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="1533524"/>
+          <a:ext cx="19050" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="276" name="直接箭头连接符 275"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="255" idx="2"/>
+          <a:endCxn id="259" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="2105024"/>
+          <a:ext cx="19050" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="279" name="矩形 278"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944225" y="1247774"/>
+          <a:ext cx="838200" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>储水技术</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="280" name="矩形 279"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10982325" y="2390774"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>循环技术</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="281" name="直接箭头连接符 280"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="279" idx="2"/>
+          <a:endCxn id="280" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11363325" y="1523999"/>
+          <a:ext cx="19050" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="282" name="矩形 281"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11868150" y="1257299"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>水利工程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="288" name="直接箭头连接符 287"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="282" idx="2"/>
+          <a:endCxn id="295" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12268200" y="1533524"/>
+          <a:ext cx="28575" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="295" name="矩形 294"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11896725" y="2390774"/>
+          <a:ext cx="800100" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>风力工程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1268,8 +6880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:C57"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1294,19 +6906,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1317,7 +6929,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1332,13 +6944,13 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2">
         <v>15</v>
@@ -1350,13 +6962,13 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
@@ -1368,13 +6980,13 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1386,13 +6998,13 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1403,13 +7015,13 @@
         <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1421,13 +7033,13 @@
         <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1439,13 +7051,13 @@
         <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1457,13 +7069,13 @@
         <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1475,13 +7087,13 @@
         <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E11" s="4">
         <v>15</v>
@@ -1492,13 +7104,13 @@
         <v>121</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E12" s="4">
         <v>15</v>
@@ -1509,13 +7121,13 @@
         <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E13" s="4">
         <v>15</v>
@@ -1526,13 +7138,13 @@
         <v>123</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E14" s="4">
         <v>15</v>
@@ -1543,13 +7155,13 @@
         <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E15" s="4">
         <v>15</v>
@@ -1560,13 +7172,13 @@
         <v>125</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -1577,13 +7189,13 @@
         <v>126</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="E17" s="4">
         <v>15</v>
@@ -1594,13 +7206,13 @@
         <v>127</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4">
         <v>15</v>
@@ -1611,13 +7223,13 @@
         <v>130</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E19" s="4">
         <v>15</v>
@@ -1628,13 +7240,13 @@
         <v>131</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E20" s="4">
         <v>15</v>
@@ -1645,13 +7257,13 @@
         <v>132</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E21" s="4">
         <v>15</v>
@@ -1662,13 +7274,13 @@
         <v>131</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E22" s="4">
         <v>15</v>
@@ -1679,13 +7291,13 @@
         <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E23" s="4">
         <v>15</v>
@@ -1696,13 +7308,13 @@
         <v>140</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -1713,13 +7325,13 @@
         <v>141</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1730,13 +7342,13 @@
         <v>142</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -1747,13 +7359,13 @@
         <v>143</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -1764,13 +7376,13 @@
         <v>144</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -1781,13 +7393,13 @@
         <v>150</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
@@ -1798,13 +7410,13 @@
         <v>151</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
@@ -1815,13 +7427,13 @@
         <v>152</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2">
         <v>5</v>
@@ -1832,13 +7444,13 @@
         <v>160</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -1849,13 +7461,13 @@
         <v>161</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -1866,13 +7478,13 @@
         <v>162</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -1883,13 +7495,13 @@
         <v>163</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -1900,13 +7512,13 @@
         <v>110</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E36" s="2">
         <v>10</v>
@@ -1917,13 +7529,13 @@
         <v>140</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E37" s="2">
         <v>15</v>
@@ -1934,13 +7546,13 @@
         <v>140</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2">
         <v>15</v>
@@ -1954,10 +7566,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -1968,13 +7580,13 @@
         <v>111</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="D40" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -1985,13 +7597,13 @@
         <v>119</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="D41" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -2002,13 +7614,13 @@
         <v>128</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -2019,13 +7631,13 @@
         <v>142</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -2033,13 +7645,13 @@
         <v>121</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2">
         <v>10</v>
@@ -2050,13 +7662,13 @@
         <v>129</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2">
         <v>15</v>
@@ -2067,13 +7679,13 @@
         <v>143</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2">
         <v>15</v>
@@ -2084,13 +7696,13 @@
         <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -2101,13 +7713,13 @@
         <v>120</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -2118,13 +7730,13 @@
         <v>131</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -2135,13 +7747,13 @@
         <v>145</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
@@ -2152,13 +7764,13 @@
         <v>122</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2">
         <v>10</v>
@@ -2169,13 +7781,13 @@
         <v>132</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2">
         <v>15</v>
@@ -2186,13 +7798,13 @@
         <v>146</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2">
         <v>15</v>
@@ -2203,13 +7815,13 @@
         <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E54" s="2">
         <v>10</v>
@@ -2220,13 +7832,13 @@
         <v>144</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2">
         <v>15</v>
@@ -2237,13 +7849,13 @@
         <v>130</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2">
         <v>10</v>
@@ -2254,13 +7866,13 @@
         <v>133</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E57" s="2">
         <v>10</v>
@@ -2277,8 +7889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2291,16 +7903,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2308,13 +7920,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -2322,13 +7934,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2336,13 +7948,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -2350,13 +7962,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -2364,13 +7976,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -2378,13 +7990,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -2392,13 +8004,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -2406,13 +8018,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
@@ -2420,13 +8032,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -2434,13 +8046,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -2448,13 +8060,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -2462,13 +8074,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -2476,13 +8088,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
@@ -2490,13 +8102,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -2504,13 +8116,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -2518,13 +8130,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -2532,13 +8144,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -2546,13 +8158,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2563,13 +8175,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C23:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q29:Q30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C23" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>